--- a/Contenido/1_Conceptos/Xlsx/PerfilVelocidades.xlsx
+++ b/Contenido/1_Conceptos/Xlsx/PerfilVelocidades.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HSLB\Contenido\1_Conceptos\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1751FCC5-FF95-44F2-AF2B-063FC4A5CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE96FE-C94E-4F5A-A3E1-68CEB0E109D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C9CEC5-2DD9-4BDA-8D9B-49DEFCA55A28}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{91C9CEC5-2DD9-4BDA-8D9B-49DEFCA55A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfil" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>b</t>
   </si>
@@ -220,6 +217,9 @@
   <si>
     <t>Geometría S. Transversal</t>
   </si>
+  <si>
+    <t>h (m)</t>
+  </si>
 </sst>
 </file>
 
@@ -228,17 +228,17 @@
   <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0\ &quot;m&quot;"/>
-    <numFmt numFmtId="170" formatCode="0.0\ &quot;m2&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00\ &quot;Pa&quot;"/>
-    <numFmt numFmtId="179" formatCode="0\ &quot;kg/m3&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.00\ &quot;mcs&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.00E-0\ &quot;m2/s&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.000\ &quot;m/s&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00\ &quot;mm&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0\ &quot;m&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0\ &quot;m2&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;Pa&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;kg/m3&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00\ &quot;mcs&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00E-0\ &quot;m2/s&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.000\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00\ &quot;mm&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -387,9 +387,6 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,10 +397,31 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -412,48 +430,30 @@
     <xf numFmtId="173" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="174" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -725,6 +725,11 @@
               <c:symbol val="none"/>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4F86-436B-B0F7-B13613C0DCBD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -1208,6 +1213,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2014367919"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3005,8 +3011,8 @@
       <xdr:rowOff>176830</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828239" cy="347596"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -3048,6 +3054,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3057,7 +3064,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="bg1">
                                 <a:lumMod val="65000"/>
@@ -3273,7 +3280,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CuadroTexto 4">
@@ -3348,8 +3355,8 @@
       <xdr:rowOff>145878</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="576632" cy="187615"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -3391,6 +3398,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3400,7 +3408,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="bg1">
                                 <a:lumMod val="65000"/>
@@ -3470,7 +3478,7 @@
                     <m:sSubSup>
                       <m:sSubSupPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1100" b="0" i="0">
+                          <a:rPr lang="es-CO" sz="1100" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="bg1">
                                 <a:lumMod val="65000"/>
@@ -3539,7 +3547,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="CuadroTexto 5">
@@ -3716,8 +3724,8 @@
       <xdr:rowOff>24212</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="761426" cy="350160"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -3759,6 +3767,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3768,7 +3777,7 @@
                     <m:sSub>
                       <m:sSubPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1200" b="0" i="0">
+                          <a:rPr lang="es-CO" sz="1200" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="bg1">
                                 <a:lumMod val="65000"/>
@@ -3782,7 +3791,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1200" b="0" i="0">
+                              <a:rPr lang="es-CO" sz="1200" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="bg1">
                                     <a:lumMod val="65000"/>
@@ -3857,7 +3866,7 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="es-CO" sz="1200" b="0" i="0">
+                          <a:rPr lang="es-CO" sz="1200" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="bg1">
                                 <a:lumMod val="65000"/>
@@ -3871,7 +3880,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1200" b="0" i="0">
+                              <a:rPr lang="es-CO" sz="1200" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="bg1">
                                     <a:lumMod val="65000"/>
@@ -3914,7 +3923,7 @@
                         <m:sSub>
                           <m:sSubPr>
                             <m:ctrlPr>
-                              <a:rPr lang="es-CO" sz="1200" b="0" i="0">
+                              <a:rPr lang="es-CO" sz="1200" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="bg1">
                                     <a:lumMod val="65000"/>
@@ -3991,7 +4000,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="CuadroTexto 11">
@@ -4095,19 +4104,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4410,395 +4406,395 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="L25" sqref="L25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="7.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
+      <c r="A1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>1.1000000000000001E-6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>0.25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <f>+C6*C5+(C7*C5^2)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f>+H7/C8</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>+C6+2*SQRT(C5^2+(C7*C5)^2)</f>
         <v>4.6231056256176606</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>+C8/C9</f>
         <v>0.43260962693942218</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>0.36</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f>+H8*SQRT(C13/8)</f>
         <v>2.3405069648004932E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f>+H11*H11*H5</f>
         <v>0.54670169065750585</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f>8*9.806*C12^2/(C10^(1/3))</f>
         <v>1.7529513127294775E-2</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f>+H11*C11/1000/H6</f>
         <v>7.6598409757107033</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="25" t="str">
         <f>+IF(H13&lt;=5,"'S. hidráulicamente lisa'",IF(H13&lt;70,"'S. hidráulicamente en transición'","'S. hidráulicamente rugosa'"))</f>
         <v>'S. hidráulicamente en transición'</v>
       </c>
-      <c r="H14" s="23"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f>+C5*1.1</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <f>+B19+C5*0.1*C7</f>
         <v>0.05</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f>+C5</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <f>B20+(B19+C5*C7)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <f>+B21+C6</f>
         <v>1.05</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <f>+B22+C5*C7</f>
         <v>1.55</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <f>+C20</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <f>+B23+(C5*0.1*C7)</f>
         <v>1.6</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <f>+C19</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f>+C5/10</f>
         <v>0.2</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <f>+IF(H13&lt;5,$H$11*LN(30000*B29/$C$11)/0.4,IF(H13&lt;70,$H$11*LN((B29*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B29*$H$11/$H$6)/0.4))</f>
         <v>0.59148451538121982</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
-        <f>+B29+$B$29</f>
+      <c r="B30" s="4">
+        <f t="shared" ref="B30:B38" si="0">+B29+$B$29</f>
         <v>0.4</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <f>+IF(H14&lt;5,$H$11*LN(30000*B30/$C$11)/0.4,IF(H14&lt;70,$H$11*LN((B30*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B30*$H$11/$H$6)/0.4))</f>
         <v>0.60936931306871633</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
-        <f>+B30+$B$29</f>
+      <c r="B31" s="4">
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="C31" s="12">
-        <f>+IF(F15&lt;5,$H$11*LN(30000*B31/$C$11)/0.4,IF(F15&lt;70,$H$11*LN((B31*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B31*$H$11/$H$6)/0.4))</f>
+      <c r="C31" s="11">
+        <f t="shared" ref="C31:C38" si="1">+IF(F15&lt;5,$H$11*LN(30000*B31/$C$11)/0.4,IF(F15&lt;70,$H$11*LN((B31*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B31*$H$11/$H$6)/0.4))</f>
         <v>0.63309416080648495</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <f>+B31+$B$29</f>
+      <c r="B32" s="4">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="C32" s="12">
-        <f>+IF(F16&lt;5,$H$11*LN(30000*B32/$C$11)/0.4,IF(F16&lt;70,$H$11*LN((B32*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B32*$H$11/$H$6)/0.4))</f>
+      <c r="C32" s="11">
+        <f t="shared" si="1"/>
         <v>0.64992720816202576</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <f>+B32+$B$29</f>
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C33" s="12">
-        <f>+IF(F17&lt;5,$H$11*LN(30000*B33/$C$11)/0.4,IF(F17&lt;70,$H$11*LN((B33*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B33*$H$11/$H$6)/0.4))</f>
+      <c r="C33" s="11">
+        <f t="shared" si="1"/>
         <v>0.66298393406205636</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <f>+B33+$B$29</f>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="C34" s="12">
-        <f>+IF(F18&lt;5,$H$11*LN(30000*B34/$C$11)/0.4,IF(F18&lt;70,$H$11*LN((B34*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B34*$H$11/$H$6)/0.4))</f>
+      <c r="C34" s="11">
+        <f t="shared" si="1"/>
         <v>0.67365205589979438</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <f>+B34+$B$29</f>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="C35" s="12">
-        <f>+IF(F19&lt;5,$H$11*LN(30000*B35/$C$11)/0.4,IF(F19&lt;70,$H$11*LN((B35*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B35*$H$11/$H$6)/0.4))</f>
+      <c r="C35" s="11">
+        <f t="shared" si="1"/>
         <v>0.68267182439390517</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <f>+B35+$B$29</f>
+      <c r="B36" s="4">
+        <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="C36" s="12">
-        <f>+IF(F20&lt;5,$H$11*LN(30000*B36/$C$11)/0.4,IF(F20&lt;70,$H$11*LN((B36*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B36*$H$11/$H$6)/0.4))</f>
+      <c r="C36" s="11">
+        <f t="shared" si="1"/>
         <v>0.69048510325533519</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <f>+B36+$B$29</f>
+      <c r="B37" s="4">
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="C37" s="12">
-        <f>+IF(F21&lt;5,$H$11*LN(30000*B37/$C$11)/0.4,IF(F21&lt;70,$H$11*LN((B37*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B37*$H$11/$H$6)/0.4))</f>
+      <c r="C37" s="11">
+        <f t="shared" si="1"/>
         <v>0.69737690363756288</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <f>+B37+$B$29</f>
+      <c r="B38" s="4">
+        <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="C38" s="12">
-        <f>+IF(F22&lt;5,$H$11*LN(30000*B38/$C$11)/0.4,IF(F22&lt;70,$H$11*LN((B38*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B38*$H$11/$H$6)/0.4))</f>
+      <c r="C38" s="11">
+        <f t="shared" si="1"/>
         <v>0.70354182915536578</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Contenido/1_Conceptos/Xlsx/PerfilVelocidades.xlsx
+++ b/Contenido/1_Conceptos/Xlsx/PerfilVelocidades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HSLB\Contenido\1_Conceptos\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE96FE-C94E-4F5A-A3E1-68CEB0E109D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F6B24C-A12D-49D0-ACE5-40080EF896D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{91C9CEC5-2DD9-4BDA-8D9B-49DEFCA55A28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C9CEC5-2DD9-4BDA-8D9B-49DEFCA55A28}"/>
   </bookViews>
   <sheets>
     <sheet name="Perfil" sheetId="1" r:id="rId1"/>
@@ -4405,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB9ECBA-A64B-4476-B79D-26482646A7D3}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:M25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Contenido/1_Conceptos/Xlsx/PerfilVelocidades.xlsx
+++ b/Contenido/1_Conceptos/Xlsx/PerfilVelocidades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\J.HSLB\Contenido\1_Conceptos\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F6B24C-A12D-49D0-ACE5-40080EF896D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678AA8D8-E695-463A-B5A8-5BBCE4C83700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91C9CEC5-2DD9-4BDA-8D9B-49DEFCA55A28}"/>
   </bookViews>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\ &quot;m&quot;"/>
@@ -239,6 +239,7 @@
     <numFmt numFmtId="173" formatCode="0.00E-0\ &quot;m2/s&quot;"/>
     <numFmt numFmtId="174" formatCode="0.000\ &quot;m/s&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00\ &quot;mm&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00\ &quot;m&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -385,7 +386,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,6 +454,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,31 +612,31 @@
                   <c:v>0.59148451538121982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60936931306871633</c:v>
+                  <c:v>0.63204241047452925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63309416080648495</c:v>
+                  <c:v>0.65576725821229787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64992720816202576</c:v>
+                  <c:v>0.67260030556783867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66298393406205636</c:v>
+                  <c:v>0.68565703146786916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67365205589979438</c:v>
+                  <c:v>0.69632515330560718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68267182439390517</c:v>
+                  <c:v>0.70534492179971797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69048510325533519</c:v>
+                  <c:v>0.7131582006611481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69737690363756288</c:v>
+                  <c:v>0.72005000104337591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70354182915536578</c:v>
+                  <c:v>0.72621492656117859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,31 +654,31 @@
                   <c:v>0.59148451538121982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60936931306871633</c:v>
+                  <c:v>0.63204241047452925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63309416080648495</c:v>
+                  <c:v>0.65576725821229787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64992720816202576</c:v>
+                  <c:v>0.67260030556783867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66298393406205636</c:v>
+                  <c:v>0.68565703146786916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67365205589979438</c:v>
+                  <c:v>0.69632515330560718</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68267182439390517</c:v>
+                  <c:v>0.70534492179971797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69048510325533519</c:v>
+                  <c:v>0.7131582006611481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69737690363756288</c:v>
+                  <c:v>0.72005000104337591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70354182915536578</c:v>
+                  <c:v>0.72621492656117859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -813,31 +817,31 @@
                   <c:v>0.59148451538121982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60936931306871633</c:v>
+                  <c:v>0.63204241047452925</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63309416080648495</c:v>
+                  <c:v>0.65576725821229787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64992720816202576</c:v>
+                  <c:v>0.67260030556783867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66298393406205636</c:v>
+                  <c:v>0.68565703146786916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67365205589979438</c:v>
+                  <c:v>0.69632515330560718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68267182439390517</c:v>
+                  <c:v>0.70534492179971797</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69048510325533519</c:v>
+                  <c:v>0.7131582006611481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69737690363756288</c:v>
+                  <c:v>0.72005000104337591</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70354182915536578</c:v>
+                  <c:v>0.72621492656117859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4405,8 +4409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB9ECBA-A64B-4476-B79D-26482646A7D3}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4523,7 +4527,7 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="27">
         <f>+C8/C9</f>
         <v>0.43260962693942218</v>
       </c>
@@ -4682,7 +4686,7 @@
         <v>0.2</v>
       </c>
       <c r="C29" s="11">
-        <f>+IF(H13&lt;5,$H$11*LN(30000*B29/$C$11)/0.4,IF(H13&lt;70,$H$11*LN((B29*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B29*$H$11/$H$6)/0.4))</f>
+        <f>+IF($H$13&lt;5,$H$11*LN(30000*B29/$C$11)/0.4,IF(H13&lt;70,$H$11*LN((B29*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B29*$H$11/$H$6)/0.4))</f>
         <v>0.59148451538121982</v>
       </c>
       <c r="D29" s="17"/>
@@ -4694,8 +4698,8 @@
         <v>0.4</v>
       </c>
       <c r="C30" s="11">
-        <f>+IF(H14&lt;5,$H$11*LN(30000*B30/$C$11)/0.4,IF(H14&lt;70,$H$11*LN((B30*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B30*$H$11/$H$6)/0.4))</f>
-        <v>0.60936931306871633</v>
+        <f t="shared" ref="C30:C38" si="1">+IF($H$13&lt;5,$H$11*LN(30000*B30/$C$11)/0.4,IF(H14&lt;70,$H$11*LN((B30*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B30*$H$11/$H$6)/0.4))</f>
+        <v>0.63204241047452925</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -4706,8 +4710,8 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" ref="C31:C38" si="1">+IF(F15&lt;5,$H$11*LN(30000*B31/$C$11)/0.4,IF(F15&lt;70,$H$11*LN((B31*1000/$C$11)/((1/9.025/$H$13)+(EXP(-10.78/$H$13)/30)))/0.4,$H$11*LN(9.025*B31*$H$11/$H$6)/0.4))</f>
-        <v>0.63309416080648495</v>
+        <f t="shared" si="1"/>
+        <v>0.65576725821229787</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="C32" s="11">
         <f t="shared" si="1"/>
-        <v>0.64992720816202576</v>
+        <v>0.67260030556783867</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -4731,7 +4735,7 @@
       </c>
       <c r="C33" s="11">
         <f t="shared" si="1"/>
-        <v>0.66298393406205636</v>
+        <v>0.68565703146786916</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -4743,7 +4747,7 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" si="1"/>
-        <v>0.67365205589979438</v>
+        <v>0.69632515330560718</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -4755,7 +4759,7 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="1"/>
-        <v>0.68267182439390517</v>
+        <v>0.70534492179971797</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -4767,7 +4771,7 @@
       </c>
       <c r="C36" s="11">
         <f t="shared" si="1"/>
-        <v>0.69048510325533519</v>
+        <v>0.7131582006611481</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -4779,7 +4783,7 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="1"/>
-        <v>0.69737690363756288</v>
+        <v>0.72005000104337591</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -4791,7 +4795,7 @@
       </c>
       <c r="C38" s="11">
         <f t="shared" si="1"/>
-        <v>0.70354182915536578</v>
+        <v>0.72621492656117859</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
